--- a/biology/Médecine/Abatacept/Abatacept.xlsx
+++ b/biology/Médecine/Abatacept/Abatacept.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'abatacept est un médicament immunosuppresseur utilisé dans certaines maladies rhumatologiques comme certaines formes de polyarthrite rhumatoïde, psoriasique et juvénile (voir RCP).
-L'abatacept est une protéine de fusion composée de la région Fc de l'immunoglobuline IgG1 fusionnée au domaine extracellulaire de CTLA-4. Il « module sélectivement un signal clé de costimulation nécessaire à l'activation complète des lymphocytes T exprimant le CD28 (en) »[1] En effet, pour qu’un lymphocyte T soit activé et produise une réponse immunitaire, une cellule présentatrice d’antigène doit lui présenter deux signaux : 
+L'abatacept est une protéine de fusion composée de la région Fc de l'immunoglobuline IgG1 fusionnée au domaine extracellulaire de CTLA-4. Il « module sélectivement un signal clé de costimulation nécessaire à l'activation complète des lymphocytes T exprimant le CD28 (en) » En effet, pour qu’un lymphocyte T soit activé et produise une réponse immunitaire, une cellule présentatrice d’antigène doit lui présenter deux signaux : 
 le complexe majeur d'histocompatibilité (CMH), combiné à l'antigène ;
 la molécule CD80 (en) ou CD86 (en) (également connue sous les noms de B7-1 et B7-2).
 L'abatacept se lie aux molécules CD80 et CD86 et empêche le deuxième signal. Sans ce deuxième signal, le lymphocyte T affecté n'est pas activé, ce qui diminue d'autant la production de certaines cytokines.
@@ -516,7 +528,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abatacept est contre-indiqué avec la grossesse, les infections actives et les utilisations concomitantes d'un inhibiteur du TNF (risque accru d'infections graves).
 </t>
@@ -547,7 +561,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Céphalées, nausées : fréquent.
 Réactions liées à la perfusion (p. ex. céphalées, vertiges, élévation de la pression artérielle).
@@ -579,9 +595,11 @@
           <t>Précautions particulières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant l'instauration d'un traitement par l'abatacept, il convient de rechercher une tuberculose latente (par anamnèse, intradermoréaction à la tuberculine et RX-thorax) ; en présence d'une tuberculose, des tuberculostatiques doivent être instaurés avant le début du traitement par abatacept[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant l'instauration d'un traitement par l'abatacept, il convient de rechercher une tuberculose latente (par anamnèse, intradermoréaction à la tuberculine et RX-thorax) ; en présence d'une tuberculose, des tuberculostatiques doivent être instaurés avant le début du traitement par abatacept.
 </t>
         </is>
       </c>
@@ -610,10 +628,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il améliore les symptômes des patients porteurs d'une polyarthrite rhumatoïde et qui sont résistants aux inhibiteurs du TNF alpha[3].
-Un essai clinique de phase 2b (dénommé APIPPRA) évalue son efficacité chez des patients présentant un taux élevé d'ACPA (en), de facteur rhumatoïde et des douleurs articulaires — des personnes présentant un risque élevé de développer une polyarthrite rhumatoïde — pour prévenir l'apparition de cette maladie. L'essai a montré une réduction de 80 % du risque de développer la polyarthrite rhumatoïde pendant la durée du traitement préventif[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il améliore les symptômes des patients porteurs d'une polyarthrite rhumatoïde et qui sont résistants aux inhibiteurs du TNF alpha.
+Un essai clinique de phase 2b (dénommé APIPPRA) évalue son efficacité chez des patients présentant un taux élevé d'ACPA (en), de facteur rhumatoïde et des douleurs articulaires — des personnes présentant un risque élevé de développer une polyarthrite rhumatoïde — pour prévenir l'apparition de cette maladie. L'essai a montré une réduction de 80 % du risque de développer la polyarthrite rhumatoïde pendant la durée du traitement préventif.
 </t>
         </is>
       </c>
